--- a/yxf_yixue/utils/cexcel/三式-奇门天干.xlsx
+++ b/yxf_yixue/utils/cexcel/三式-奇门天干.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2100" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +129,62 @@
   </si>
   <si>
     <t>甲寅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五行数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,7 +192,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +202,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -172,8 +236,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -478,165 +546,264 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="3">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="3">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="4">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="4">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
+      <c r="G9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
+      <c r="G10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="4">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
         <v>17</v>
       </c>
-      <c r="D11" t="s">
+      <c r="G11" t="s">
         <v>28</v>
       </c>
     </row>
